--- a/medicine/Mort/Dernier_repas/Dernier_repas.xlsx
+++ b/medicine/Mort/Dernier_repas/Dernier_repas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dernier repas ou repas du condamné est le dernier repas pris par un condamné à mort avant son exécution.
 Traditionnellement, le condamné peut choisir le repas qu'il veut avant d'être mis à mort. C'est particulièrement le cas aux États-Unis, bien que la législation change selon les États : certains laissent libre choix au prisonnier, d'autres ont abrogé cette pratique et ne fournissent qu'un repas standard aux condamnés à mort.
@@ -512,16 +524,18 @@
           <t>Condamnés célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mathias Kneissl demanda six verres de bière[1].
-Barbara Graham commanda un sundae au chocolat pour le petit déjeuner[2].
-Adolf Eichmann déclina l'offre d'un dernier repas, lui préférant une bouteille de Carmel, un vin rouge israélien dont il but la moitié[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mathias Kneissl demanda six verres de bière.
+Barbara Graham commanda un sundae au chocolat pour le petit déjeuner.
+Adolf Eichmann déclina l'offre d'un dernier repas, lui préférant une bouteille de Carmel, un vin rouge israélien dont il but la moitié.
 Gary Gilmore a pris un hamburger, des œufs durs, du café, une pomme de terre frite, et du whisky.
 John Wayne Gacy a pris du poulet frit, des crevettes frites (en), des pommes-frites et des fraises.
 Odell Barnes demanda de la justice, de l'égalité et de la paix dans le monde.
 Timothy McVeigh demanda un litre de glace à la menthe avec des pépites de chocolat.
-Tookie Williams refusa le dernier repas (« Il faudrait que je sois complètement dingue pour accepter un repas d'une maison qui veut me détruire », avait confié le condamné à mort dans un entretien accordé au New York Times)[4].</t>
+Tookie Williams refusa le dernier repas (« Il faudrait que je sois complètement dingue pour accepter un repas d'une maison qui veut me détruire », avait confié le condamné à mort dans un entretien accordé au New York Times).</t>
         </is>
       </c>
     </row>
@@ -549,9 +563,11 @@
           <t>Par juridictions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Au Texas, l'administration devait donner au détenu le repas qu'il demande sous réserve qu'il se trouvât à leur disposition dans le garde-manger de la prison. Cette tradition fut abolie en septembre 2011 à la suite de la condamnation à mort de Lawrence Brewer (affaire James Byrd, Jr.) qui avait demandé un dernier repas « pantagruélique »[5]. Les condamnés texans ont désormais le repas normal des prisonniers[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au Texas, l'administration devait donner au détenu le repas qu'il demande sous réserve qu'il se trouvât à leur disposition dans le garde-manger de la prison. Cette tradition fut abolie en septembre 2011 à la suite de la condamnation à mort de Lawrence Brewer (affaire James Byrd, Jr.) qui avait demandé un dernier repas « pantagruélique ». Les condamnés texans ont désormais le repas normal des prisonniers.
 En Floride, le coût du repas ne doit pas dépasser 40 $ ; dans le Tennessee, ce coût est réduit à 20 $. Dans l'Oklahoma, c'est 15 $.
 En Californie, un agent pénitentiaire est chargé d'aller acheter le repas dans un magasin proche si nécessaire.</t>
         </is>
@@ -581,7 +597,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Dernier Repas (Majimak babsang), film sud-coréen réalisé par Roh Gyeong-tae en 2006</t>
         </is>
